--- a/data/trans_camb/P19C09-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C09-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C09-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C09-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,1</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,58; -0,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,53; 1,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,9; -0,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,32; 0,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,21; -0,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 0,42</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,05%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,05; 5,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,16; 53,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,35; -5,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,51; 18,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,0; -19,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,15; 12,14</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,41; -0,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 1,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 1,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 1,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 0,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 1,08</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,04%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,32; -2,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,93; 98,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,76; 164,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,54; 105,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,52; 38,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,79; 64,52</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 4,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 3,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,2; 2,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,89; 3,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 2,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,6; 2,59</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,71%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,02%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,54; 538,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,33; 389,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,69; 109,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,14; 153,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,9; 155,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,1; 135,85</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; -0,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 1,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 0,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 0,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 0,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 0,58</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,33%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,59%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,89%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,04%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,5%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,55; -2,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,04; 57,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,39; 23,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,94; 17,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,66; 1,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,35; 23,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C09-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C09-Estudios-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,58; -0,05</t>
+          <t>-3,54; -0,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 1,53</t>
+          <t>-2,51; 1,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,9; -0,31</t>
+          <t>-3,83; -0,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 0,64</t>
+          <t>-3,37; 0,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,21; -0,81</t>
+          <t>-3,21; -0,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 0,42</t>
+          <t>-2,66; 0,37</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-76,05; 5,08</t>
+          <t>-76,19; 0,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-56,16; 53,61</t>
+          <t>-57,8; 63,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-61,35; -5,55</t>
+          <t>-63,19; -2,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-57,51; 18,34</t>
+          <t>-58,95; 17,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-62,0; -19,74</t>
+          <t>-62,21; -15,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,15; 12,14</t>
+          <t>-51,56; 10,31</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; -0,1</t>
+          <t>-2,32; -0,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 1,69</t>
+          <t>-0,87; 1,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,95</t>
+          <t>-0,31; 2,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,2</t>
+          <t>-0,9; 1,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 0,62</t>
+          <t>-0,96; 0,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 1,08</t>
+          <t>-0,46; 1,01</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-72,32; -2,81</t>
+          <t>-72,06; -5,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,93; 98,14</t>
+          <t>-28,45; 92,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 164,11</t>
+          <t>-14,97; 152,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,54; 105,14</t>
+          <t>-38,64; 82,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,52; 38,26</t>
+          <t>-38,76; 36,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 64,52</t>
+          <t>-18,67; 59,35</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 4,08</t>
+          <t>-0,17; 4,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 3,03</t>
+          <t>-0,71; 3,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 2,34</t>
+          <t>-2,89; 2,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 3,24</t>
+          <t>-2,17; 3,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,55</t>
+          <t>-0,91; 2,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 2,59</t>
+          <t>-0,6; 2,63</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,54; 538,23</t>
+          <t>-25,46; 508,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-43,33; 389,93</t>
+          <t>-36,34; 433,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-64,69; 109,02</t>
+          <t>-61,31; 115,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-39,14; 153,51</t>
+          <t>-44,75; 142,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,9; 155,25</t>
+          <t>-29,6; 151,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,1; 135,85</t>
+          <t>-18,92; 151,29</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,75; -0,1</t>
+          <t>-1,82; -0,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,23</t>
+          <t>-0,65; 1,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 0,6</t>
+          <t>-1,28; 0,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 0,44</t>
+          <t>-1,35; 0,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 0,02</t>
+          <t>-1,19; 0,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,58</t>
+          <t>-0,79; 0,56</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-55,55; -2,01</t>
+          <t>-55,57; -4,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,04; 57,07</t>
+          <t>-20,45; 57,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-34,39; 23,24</t>
+          <t>-36,35; 22,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-38,94; 17,24</t>
+          <t>-38,06; 17,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-37,66; 1,04</t>
+          <t>-36,71; 3,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 23,13</t>
+          <t>-23,86; 21,86</t>
         </is>
       </c>
     </row>
